--- a/InputFiles/INS/TC01_INS_DataSets_Repository-CEDCD.xlsx
+++ b/InputFiles/INS/TC01_INS_DataSets_Repository-CEDCD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/05-19-2025/Commons_Automation/InputFiles/INS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/05-29-2025/Commons_Automation/InputFiles/INS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A053C67C-216A-5F49-A5FC-8DB9BB01394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BB135-0ADD-B44E-9989-BEFE0FF1ADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17440" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WebExcel</t>
   </si>
@@ -82,6 +82,16 @@
         THEN SUBSTR(REPLACE(TRIM(ds.description), '  ', ' '), 1, 500) || ' ...'
         ELSE REPLACE(TRIM(ds.description), '  ', ' ')
     END AS "Description"
+FROM df_cedcd ds
+ORDER BY ds.dataset_title ASC;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    REPLACE(ds.dataset_title, '  ', ' ') AS "Title", 
+    ds.dataset_source_id AS "Source ID", 
+    ds.primary_disease AS "Primary Disease",
+    -- CAST(ds.participant_count AS INT) AS "Participants Count",
+    CAST(ds.sample_count AS INT) AS "Sample Count"
 FROM df_cedcd ds
 ORDER BY ds.dataset_title ASC;</t>
   </si>
@@ -486,7 +496,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
@@ -534,7 +544,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
